--- a/Documentos/CAMPOSNUEVOSIB.xlsx
+++ b/Documentos/CAMPOSNUEVOSIB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t xml:space="preserve">TIPO </t>
   </si>
@@ -46,6 +46,180 @@
   </si>
   <si>
     <t>EM_idt_Email</t>
+  </si>
+  <si>
+    <t>calendario facturacion</t>
+  </si>
+  <si>
+    <t>Customer_Blocking</t>
+  </si>
+  <si>
+    <t>condiciones de pago</t>
+  </si>
+  <si>
+    <t>On Hold</t>
+  </si>
+  <si>
+    <t>em_co_bp_fec_venct_aut_rt_sri</t>
+  </si>
+  <si>
+    <t>Fecha de vencimiento autorizacion</t>
+  </si>
+  <si>
+    <t>em_co_bp_nro_aut_rt_sri</t>
+  </si>
+  <si>
+    <t>Numero de autorizacion de rentas internas</t>
+  </si>
+  <si>
+    <t>em_co_bp_nro_estab</t>
+  </si>
+  <si>
+    <t>numero de establecimiento</t>
+  </si>
+  <si>
+    <t>em_co_bp_punto_emision</t>
+  </si>
+  <si>
+    <t>Punto emision</t>
+  </si>
+  <si>
+    <t>em_cob_calificacion</t>
+  </si>
+  <si>
+    <t>CALIFICACION</t>
+  </si>
+  <si>
+    <t>fin_financial_account_id</t>
+  </si>
+  <si>
+    <t>cuenta financiera</t>
+  </si>
+  <si>
+    <t>metodo de pago</t>
+  </si>
+  <si>
+    <t>Dias de vencimiento</t>
+  </si>
+  <si>
+    <t>2 dia de vencimiento</t>
+  </si>
+  <si>
+    <t>3 dia de vencimiento</t>
+  </si>
+  <si>
+    <t>facturacion</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Categoria Imp. Tercero</t>
+  </si>
+  <si>
+    <t>Credito Limite</t>
+  </si>
+  <si>
+    <t>iscustomer</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>m_pricelist_id</t>
+  </si>
+  <si>
+    <t>c_invoiceschedule_id</t>
+  </si>
+  <si>
+    <t>c_paymentterm_id</t>
+  </si>
+  <si>
+    <t>timestamp without time zone</t>
+  </si>
+  <si>
+    <t>FIN_Paymentmethod_idfin_paymentmethod_id</t>
+  </si>
+  <si>
+    <t>fixmonthday</t>
+  </si>
+  <si>
+    <t>fixmonthday2</t>
+  </si>
+  <si>
+    <t>fixmonthday3</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>salesrep_id</t>
+  </si>
+  <si>
+    <t>invoicerule</t>
+  </si>
+  <si>
+    <t>so_bp_taxcategory_id</t>
+  </si>
+  <si>
+    <t>so_creditlimit</t>
+  </si>
+  <si>
+    <t>em_idt_iscustomer</t>
+  </si>
+  <si>
+    <t>em_idt_m_pricelist_id</t>
+  </si>
+  <si>
+    <t>em_idt_c_invoiceschedule_id</t>
+  </si>
+  <si>
+    <t>em_idt_c_paymentterm_id</t>
+  </si>
+  <si>
+    <t>em_idt_Customer_Blocking</t>
+  </si>
+  <si>
+    <t>em_idt_bp_fec_venct_aut_rt_sri</t>
+  </si>
+  <si>
+    <t>em_idt_bp_nro_aut_rt_sri</t>
+  </si>
+  <si>
+    <t>em_idt_bp_nro_estab</t>
+  </si>
+  <si>
+    <t>em_idt_bp_punto_emision</t>
+  </si>
+  <si>
+    <t>em_idt_calificacion</t>
+  </si>
+  <si>
+    <t>em_idt_fin_financial_account_id</t>
+  </si>
+  <si>
+    <t>em_idt_fin_paymentmethod_id</t>
+  </si>
+  <si>
+    <t>em_idt_fixmonthday</t>
+  </si>
+  <si>
+    <t>em_idt_fixmonthday2</t>
+  </si>
+  <si>
+    <t>em_idt_fixmonthday3</t>
+  </si>
+  <si>
+    <t>em_idt_invoicerule</t>
+  </si>
+  <si>
+    <t>em_idt_salesrep_id</t>
+  </si>
+  <si>
+    <t>em_idt_so_bp_taxcategory_id</t>
+  </si>
+  <si>
+    <t>em_idt_so_creditlimit</t>
   </si>
 </sst>
 </file>
@@ -61,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +261,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,18 +565,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -414,7 +596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -425,7 +607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -436,7 +618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -447,7 +629,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -458,7 +640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -469,7 +651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -478,6 +660,469 @@
       </c>
       <c r="C8">
         <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/CAMPOSNUEVOSIB.xlsx
+++ b/Documentos/CAMPOSNUEVOSIB.xlsx
@@ -177,9 +177,6 @@
     <t>em_idt_c_paymentterm_id</t>
   </si>
   <si>
-    <t>em_idt_Customer_Blocking</t>
-  </si>
-  <si>
     <t>em_idt_bp_fec_venct_aut_rt_sri</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>em_idt_so_creditlimit</t>
+  </si>
+  <si>
+    <t>em_idt_customer_blocking</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,9 +267,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +927,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -931,7 +938,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B32" t="s">
@@ -942,7 +949,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B33" t="s">
@@ -953,7 +960,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
@@ -964,8 +971,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>53</v>
+      <c r="A35" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
@@ -975,27 +982,27 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>54</v>
+      <c r="A36" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -1005,8 +1012,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>57</v>
+      <c r="A39" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -1016,8 +1023,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>58</v>
+      <c r="A40" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -1027,30 +1034,30 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>61</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1060,8 +1067,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>62</v>
+      <c r="A44" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -1071,8 +1078,8 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>63</v>
+      <c r="A45" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -1082,8 +1089,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>64</v>
+      <c r="A46" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>35</v>
@@ -1093,30 +1100,30 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>67</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>

--- a/Documentos/CAMPOSNUEVOSIB.xlsx
+++ b/Documentos/CAMPOSNUEVOSIB.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="5970"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="5970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="131">
   <si>
     <t xml:space="preserve">TIPO </t>
   </si>
@@ -220,13 +221,202 @@
   </si>
   <si>
     <t>em_idt_customer_blocking</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>APELLIDOS</t>
+  </si>
+  <si>
+    <t>NOMBRE COMERCIAL</t>
+  </si>
+  <si>
+    <t>RAZÓN SOCIAL</t>
+  </si>
+  <si>
+    <t>TIPO PERSONA</t>
+  </si>
+  <si>
+    <t>TIPO IDENTIFICACIÓN</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>TLF. CONTACTO</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>G. TERCEROS</t>
+  </si>
+  <si>
+    <t>GRETTING</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>F. CREACIÓN</t>
+  </si>
+  <si>
+    <t>CREADO POR</t>
+  </si>
+  <si>
+    <t>ci/ruc/pasaporte</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>CONTACTO NOMBRE</t>
+  </si>
+  <si>
+    <t>CONTACTO APELLIDO</t>
+  </si>
+  <si>
+    <t>CORREO CONTACTO</t>
+  </si>
+  <si>
+    <t>COMENTARIOS</t>
+  </si>
+  <si>
+    <t>Es cliente</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Credito</t>
+  </si>
+  <si>
+    <t>es proveedor</t>
+  </si>
+  <si>
+    <t>es empleado</t>
+  </si>
+  <si>
+    <t>Fecha de naciento</t>
+  </si>
+  <si>
+    <t>es agente comercial</t>
+  </si>
+  <si>
+    <t>Discapacitado</t>
+  </si>
+  <si>
+    <t>Carner de discapacitado</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Cuenta por pagar</t>
+  </si>
+  <si>
+    <t>Calle</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge </t>
+  </si>
+  <si>
+    <t>Vladimir</t>
+  </si>
+  <si>
+    <t>Muñoz Jorge</t>
+  </si>
+  <si>
+    <t>Picanteria Pepito</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Persona Natural</t>
+  </si>
+  <si>
+    <t>Pesona Juridica</t>
+  </si>
+  <si>
+    <t>werwsre</t>
+  </si>
+  <si>
+    <t>kjkl</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>jhgkh65465</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>1792318882001</t>
+  </si>
+  <si>
+    <t>CI/RUC/PASAPORTE</t>
+  </si>
+  <si>
+    <t>EDWIN SANTIAGO</t>
+  </si>
+  <si>
+    <t>YACELGA MALDONADO</t>
+  </si>
+  <si>
+    <t>1721737243</t>
+  </si>
+  <si>
+    <t>YACELGA EDWIN</t>
+  </si>
+  <si>
+    <t>PANADERIA LA UNION</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>esyacelga@hotmail.com</t>
+  </si>
+  <si>
+    <t>GRUPO TERCEROS</t>
+  </si>
+  <si>
+    <t>4028E6C72959682B01295F40BC2A02E2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,8 +424,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +452,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -264,15 +492,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -574,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +1188,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B33" t="s">
@@ -960,7 +1199,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
@@ -1045,7 +1284,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B42" t="s">
@@ -1139,24 +1378,339 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="5"/>
+    <col min="3" max="3" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="6" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="7" customWidth="1"/>
+    <col min="18" max="26" width="14.7109375" style="6" customWidth="1"/>
+    <col min="27" max="30" width="14.7109375" style="4" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="8">
+        <v>28432</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>2013323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="O3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentos/CAMPOSNUEVOSIB.xlsx
+++ b/Documentos/CAMPOSNUEVOSIB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="5970" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="5970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
   <si>
     <t xml:space="preserve">TIPO </t>
   </si>
@@ -410,6 +410,24 @@
   </si>
   <si>
     <t>4028E6C72959682B01295F40BC2A02E2</t>
+  </si>
+  <si>
+    <t>i_errormsg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV </t>
+  </si>
+  <si>
+    <t>i_isimported</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t>processed</t>
   </si>
 </sst>
 </file>
@@ -1599,20 +1617,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/Documentos/CAMPOSNUEVOSIB.xlsx
+++ b/Documentos/CAMPOSNUEVOSIB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="5970" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="5970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="131">
   <si>
     <t xml:space="preserve">TIPO </t>
   </si>
@@ -410,24 +410,6 @@
   </si>
   <si>
     <t>4028E6C72959682B01295F40BC2A02E2</t>
-  </si>
-  <si>
-    <t>i_errormsg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV </t>
-  </si>
-  <si>
-    <t>i_isimported</t>
-  </si>
-  <si>
-    <t>CHARACTER</t>
-  </si>
-  <si>
-    <t>processing</t>
-  </si>
-  <si>
-    <t>processed</t>
   </si>
 </sst>
 </file>
@@ -1617,72 +1599,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/Documentos/CAMPOSNUEVOSIB.xlsx
+++ b/Documentos/CAMPOSNUEVOSIB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="5970" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="5970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
   <si>
     <t xml:space="preserve">TIPO </t>
   </si>
@@ -428,13 +428,16 @@
   </si>
   <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>EM_IDT_URL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +449,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -514,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -527,6 +537,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -831,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,13 +917,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1398,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,10 +1430,19 @@
     <col min="14" max="14" width="14.7109375" style="6" customWidth="1"/>
     <col min="15" max="16" width="14.7109375" style="4" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" style="7" customWidth="1"/>
-    <col min="18" max="26" width="14.7109375" style="6" customWidth="1"/>
-    <col min="27" max="30" width="14.7109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="14.7109375" style="6" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="4" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="4" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="4" customWidth="1"/>
     <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1518,7 +1538,7 @@
       <c r="AE1" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="12" t="s">
         <v>77</v>
       </c>
       <c r="AG1" t="s">
@@ -1612,6 +1632,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1619,7 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/Documentos/CAMPOSNUEVOSIB.xlsx
+++ b/Documentos/CAMPOSNUEVOSIB.xlsx
@@ -361,9 +361,6 @@
     <t>werwsre</t>
   </si>
   <si>
-    <t>kjkl</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -431,6 +428,9 @@
   </si>
   <si>
     <t>EM_IDT_URL</t>
+  </si>
+  <si>
+    <t>bp@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -538,6 +538,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -917,7 +918,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1409,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,8 +1422,8 @@
     <col min="5" max="5" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" style="6" customWidth="1"/>
@@ -1470,15 +1471,15 @@
         <v>83</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -1577,13 +1578,13 @@
         <v>2</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>90</v>
@@ -1601,19 +1602,19 @@
         <v>90</v>
       </c>
       <c r="T2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="V2" s="8">
         <v>28432</v>
       </c>
       <c r="W2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="Z2" s="6">
         <v>2013323</v>
@@ -1631,8 +1632,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1661,10 +1665,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -1672,10 +1676,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
         <v>133</v>
-      </c>
-      <c r="B5" t="s">
-        <v>134</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1683,10 +1687,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1694,10 +1698,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1753,7 +1757,7 @@
         <v>73</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>4</v>
@@ -1762,39 +1766,39 @@
         <v>74</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="C2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>110</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
